--- a/biology/Écologie/Habitat_mésique/Habitat_mésique.xlsx
+++ b/biology/Écologie/Habitat_mésique/Habitat_mésique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Habitat_m%C3%A9sique</t>
+          <t>Habitat_mésique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un habitat mésique est un habitat à l’humidité moyenne, c'est-à-dire intermédiaire entre le niveau xérique et hydrique, comme le sont les forêts tempérées mixtes et à feuilles caduques, par exemple.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Habitat_m%C3%A9sique</t>
+          <t>Habitat_mésique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En écologie, un habitat mésique est un type d'habitat présentant un apport modéré ou équilibré en humidité, par exemple une forêt mésique[Quoi ?], une forêt de feuillus tempérée ou une prairie mésique sèche. Les habitats mésiques se transforment en arbustes xériques de manière non linéaire[1]. Le terme mésique fait partie d'une triade de termes utilisés pour décrire la quantité d'eau dans un habitat. Les autres sont xérique[2] et hydrique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En écologie, un habitat mésique est un type d'habitat présentant un apport modéré ou équilibré en humidité, par exemple une forêt mésique[Quoi ?], une forêt de feuillus tempérée ou une prairie mésique sèche. Les habitats mésiques se transforment en arbustes xériques de manière non linéaire. Le terme mésique fait partie d'une triade de termes utilisés pour décrire la quantité d'eau dans un habitat. Les autres sont xérique et hydrique.
 D'autres exemples d'habitats mésiques comprennent les bords de cours d'eau, les prairies humides, les sources, les suintements, les champs irrigués et les habitats de haute altitude. Ces habitats fournissent effectivement une assurance contre la sécheresse lorsque les terres situées à des altitudes plus élevées se réchauffent en raison de changements saisonniers.
 Les habitats mésiques sains agissent comme des éponges en ce sens qu'ils stockent l'eau de manière qu'elle puisse être déposée dans les habitats voisins selon les besoins. Ils sont courants dans les régions plus sèches de l'ouest des États-Unis et peuvent constituer une bonne source d'eau pour les habitats désertiques voisins. Les habitats mésiques sains fournissent également de l'herbe et des insectes pour les organismes appartenant à des niveaux trophiques supérieurs, comme les tétras.
-Les habitats mésiques subissent le stress de diverses activités humaines telles que l'élevage, malgré  des efforts de conservation . En 2010, plus de 1 474 éleveurs ont accepté de s'associer à la Sage Grouse Initiative du ministère américain de l'agriculture afin de protéger plus de 5,6 millions d'hectares d'habitats mésiques [3].
+Les habitats mésiques subissent le stress de diverses activités humaines telles que l'élevage, malgré  des efforts de conservation . En 2010, plus de 1 474 éleveurs ont accepté de s'associer à la Sage Grouse Initiative du ministère américain de l'agriculture afin de protéger plus de 5,6 millions d'hectares d'habitats mésiques .
 </t>
         </is>
       </c>
